--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4A7BEE-3DAB-4A74-A043-41F666268812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDEDB2E-C3D6-4A0D-9E0E-12105A342305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -498,10 +498,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5aH4,S6aH3,S6aH4,S1aH3,S4aH5,S2aH6,S3aH5,S5aH3,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S3aH2,S1aH6,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6aH5,S3aH4,S4aH3,S4aH4,S4aH2,S1aH4,S2aH2,S4aH6</t>
-  </si>
-  <si>
-    <t>S1aH7,S4aH7,S5aH7,S1aH8,S5aH1,S6aH7,S2aH8,S1aH1,S2aH7,S3aH8,S6aH8,S3aH1,S4aH8,S2aH1,S3aH7,S5aH8,S4aH1,S6aH1</t>
+    <t>S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S4aH5,S3aH3,S6aH5,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5aH4,S6aH3,S6aH4,S3aH4,S4aH3,S4aH4,S3aH2,S4aH2,S1aH6,S2aH6,S3aH5,S5aH3</t>
+  </si>
+  <si>
+    <t>S4aH1,S6aH1,S1aH1,S2aH7,S1aH7,S4aH7,S5aH7,S2aH8,S4aH8,S3aH1,S3aH8,S2aH1,S3aH7,S5aH8,S6aH8,S1aH8,S5aH1,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -529,10 +529,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -740,7 +739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -764,8 +763,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -818,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5743DE59-9B81-2B21-43BD-5577CB5B0387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88BA7AD-C9E8-0225-1D41-AA835C7B22C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1223,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S4aH7,S5aH7,S1aH8,S5aH1,S6aH7,S2aH8,S1aH1,S2aH7,S3aH8,S6aH8,S3aH1,S4aH8,S2aH1,S3aH7,S5aH8,S4aH1,S6aH1</v>
+        <v>S4aH1,S6aH1,S1aH1,S2aH7,S1aH7,S4aH7,S5aH7,S2aH8,S4aH8,S3aH1,S3aH8,S2aH1,S3aH7,S5aH8,S6aH8,S1aH8,S5aH1,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1258,7 +1255,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5aH4,S6aH3,S6aH4,S1aH3,S4aH5,S2aH6,S3aH5,S5aH3,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S3aH2,S1aH6,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6aH5,S3aH4,S4aH3,S4aH4,S4aH2,S1aH4,S2aH2,S4aH6</v>
+        <v>S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S4aH5,S3aH3,S6aH5,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5aH4,S6aH3,S6aH4,S3aH4,S4aH3,S4aH4,S3aH2,S4aH2,S1aH6,S2aH6,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1871,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E060956-0AA4-47BC-BB50-3083AF17558E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027B9320-5572-40F2-88EE-867355529B49}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1994,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5DFC94-1755-418F-991D-F434BC0E17E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A0F04B-BAA4-4EA7-8D6A-8B5A8FDB3A79}">
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2013,16 +2010,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -2075,13 +2072,13 @@
       <c r="O10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2113,8 +2110,8 @@
       <c r="L11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="19">
-        <v>127.34440943455283</v>
+      <c r="M11" s="17">
+        <v>2.7667697639289526E-2</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>97</v>
@@ -2122,13 +2119,13 @@
       <c r="O11" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <v>9.1508786743363754E-2</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="21" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2160,8 +2157,8 @@
       <c r="L12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="20">
-        <v>17.936718851933588</v>
+      <c r="M12" s="18">
+        <v>3.7762969838562965E-3</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>97</v>
@@ -2169,13 +2166,13 @@
       <c r="O12" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="24">
         <v>0.19055359121853394</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="23" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2207,8 +2204,8 @@
       <c r="L13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="19">
-        <v>18.18705938375458</v>
+      <c r="M13" s="17">
+        <v>3.8057583791409827E-3</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>97</v>
@@ -2216,13 +2213,13 @@
       <c r="O13" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="24">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="Q13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="22">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2254,8 +2251,8 @@
       <c r="L14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="20">
-        <v>18.209124388720063</v>
+      <c r="M14" s="18">
+        <v>3.8146327566167043E-3</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>97</v>
@@ -2263,13 +2260,13 @@
       <c r="O14" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="Q14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="26">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="S14" s="25" t="s">
+      <c r="Q14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2301,8 +2298,8 @@
       <c r="L15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="19">
-        <v>116.3513046609435</v>
+      <c r="M15" s="17">
+        <v>2.4554589397288176E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>97</v>
@@ -2310,13 +2307,13 @@
       <c r="O15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="22">
         <v>0.32347881154678343</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="21" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2348,8 +2345,8 @@
       <c r="L16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="20">
-        <v>40.96887482286764</v>
+      <c r="M16" s="18">
+        <v>8.6789853047830341E-3</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>97</v>
@@ -2357,13 +2354,13 @@
       <c r="O16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="24">
         <v>0.34475697926011922</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="23" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2395,8 +2392,8 @@
       <c r="L17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="19">
-        <v>20.512670011751311</v>
+      <c r="M17" s="17">
+        <v>4.3631262689368426E-3</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>97</v>
@@ -2433,8 +2430,8 @@
       <c r="L18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="20">
-        <v>98.696013110461891</v>
+      <c r="M18" s="18">
+        <v>2.1119789066676987E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>97</v>
@@ -2471,8 +2468,8 @@
       <c r="L19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="19">
-        <v>236.74547431409394</v>
+      <c r="M19" s="17">
+        <v>4.9536918504621323E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>97</v>
@@ -2509,8 +2506,8 @@
       <c r="L20" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="20">
-        <v>33.060388489956303</v>
+      <c r="M20" s="18">
+        <v>6.8871895397622871E-3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>97</v>
@@ -2547,8 +2544,8 @@
       <c r="L21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="19">
-        <v>33.553080432534244</v>
+      <c r="M21" s="17">
+        <v>6.9978997382806381E-3</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>97</v>
@@ -2585,8 +2582,8 @@
       <c r="L22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="20">
-        <v>33.773136745312982</v>
+      <c r="M22" s="18">
+        <v>7.0357601623926101E-3</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>97</v>
@@ -2623,8 +2620,8 @@
       <c r="L23" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="19">
-        <v>198.77984887056778</v>
+      <c r="M23" s="17">
+        <v>4.173790683931921E-2</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>97</v>
@@ -2661,8 +2658,8 @@
       <c r="L24" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="20">
-        <v>69.162915605201079</v>
+      <c r="M24" s="18">
+        <v>1.4564209218352733E-2</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>97</v>
@@ -2699,8 +2696,8 @@
       <c r="L25" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="19">
-        <v>35.329820630371238</v>
+      <c r="M25" s="17">
+        <v>7.4135954333202411E-3</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>97</v>
@@ -2737,8 +2734,8 @@
       <c r="L26" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M26" s="20">
-        <v>171.87608836497395</v>
+      <c r="M26" s="18">
+        <v>3.6100612329077228E-2</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>97</v>
@@ -2775,8 +2772,8 @@
       <c r="L27" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="19">
-        <v>314.98069036849489</v>
+      <c r="M27" s="17">
+        <v>6.5724240355904795E-2</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>97</v>
@@ -2813,8 +2810,8 @@
       <c r="L28" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="20">
-        <v>43.268623800306933</v>
+      <c r="M28" s="18">
+        <v>9.0181758128231818E-3</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>97</v>
@@ -2851,8 +2848,8 @@
       <c r="L29" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="19">
-        <v>43.36200892271134</v>
+      <c r="M29" s="17">
+        <v>9.047887452717231E-3</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>97</v>
@@ -2889,8 +2886,8 @@
       <c r="L30" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M30" s="20">
-        <v>43.941870132167018</v>
+      <c r="M30" s="18">
+        <v>9.189727977476329E-3</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>97</v>
@@ -2927,8 +2924,8 @@
       <c r="L31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M31" s="19">
-        <v>268.52634924870955</v>
+      <c r="M31" s="17">
+        <v>5.6023396077010866E-2</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>97</v>
@@ -2965,8 +2962,8 @@
       <c r="L32" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="20">
-        <v>92.19487477006588</v>
+      <c r="M32" s="18">
+        <v>1.9067729664208822E-2</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>97</v>
@@ -3003,8 +3000,8 @@
       <c r="L33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="19">
-        <v>45.240208751338685</v>
+      <c r="M33" s="17">
+        <v>9.3748790121043913E-3</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>97</v>
@@ -3041,8 +3038,8 @@
       <c r="L34" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="M34" s="20">
-        <v>228.59778758589283</v>
+      <c r="M34" s="18">
+        <v>4.7581478639672783E-2</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>97</v>
@@ -3079,8 +3076,8 @@
       <c r="L35" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M35" s="19">
-        <v>247.12766700802726</v>
+      <c r="M35" s="17">
+        <v>5.0914177778469551E-2</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>97</v>
@@ -3117,8 +3114,8 @@
       <c r="L36" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="20">
-        <v>34.217575534918673</v>
+      <c r="M36" s="18">
+        <v>6.9864093416431277E-3</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>97</v>
@@ -3155,8 +3152,8 @@
       <c r="L37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="19">
-        <v>35.026594954223754</v>
+      <c r="M37" s="17">
+        <v>7.1535854231870788E-3</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>97</v>
@@ -3193,8 +3190,8 @@
       <c r="L38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="20">
-        <v>35.838933627660225</v>
+      <c r="M38" s="18">
+        <v>7.3433717912017088E-3</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>97</v>
@@ -3231,8 +3228,8 @@
       <c r="L39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M39" s="19">
-        <v>224.34149899300473</v>
+      <c r="M39" s="17">
+        <v>4.5807737642621707E-2</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>97</v>
@@ -3269,8 +3266,8 @@
       <c r="L40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="20">
-        <v>77.850725227547528</v>
+      <c r="M40" s="18">
+        <v>1.6040735181819282E-2</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>97</v>
@@ -3307,8 +3304,8 @@
       <c r="L41" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="19">
-        <v>38.658922237918532</v>
+      <c r="M41" s="17">
+        <v>7.9459124197177097E-3</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>97</v>
@@ -3345,8 +3342,8 @@
       <c r="L42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="20">
-        <v>188.24334910855828</v>
+      <c r="M42" s="18">
+        <v>3.8608133260789011E-2</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>97</v>
@@ -3383,8 +3380,8 @@
       <c r="L43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M43" s="19">
-        <v>286.07395185143832</v>
+      <c r="M43" s="17">
+        <v>6.0724290499253993E-2</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>97</v>
@@ -3421,8 +3418,8 @@
       <c r="L44" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M44" s="20">
-        <v>39.486347588941186</v>
+      <c r="M44" s="18">
+        <v>8.3834179179408108E-3</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>97</v>
@@ -3459,8 +3456,8 @@
       <c r="L45" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M45" s="19">
-        <v>39.835401677192912</v>
+      <c r="M45" s="17">
+        <v>8.4581681043188073E-3</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>97</v>
@@ -3497,8 +3494,8 @@
       <c r="L46" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="M46" s="20">
-        <v>39.73556723351939</v>
+      <c r="M46" s="18">
+        <v>8.4498575755891387E-3</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>97</v>
@@ -3535,8 +3532,8 @@
       <c r="L47" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M47" s="19">
-        <v>223.48251550278781</v>
+      <c r="M47" s="17">
+        <v>4.7476237010599713E-2</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>97</v>
@@ -3573,8 +3570,8 @@
       <c r="L48" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="M48" s="20">
-        <v>77.361493518519453</v>
+      <c r="M48" s="18">
+        <v>1.6372393639637398E-2</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>97</v>
@@ -3611,8 +3608,8 @@
       <c r="L49" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M49" s="19">
-        <v>39.00986214215159</v>
+      <c r="M49" s="17">
+        <v>8.2132022360418833E-3</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>97</v>
@@ -3649,8 +3646,8 @@
       <c r="L50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M50" s="20">
-        <v>200.16746355713784</v>
+      <c r="M50" s="18">
+        <v>4.219049536798028E-2</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>97</v>
@@ -3687,8 +3684,8 @@
       <c r="L51" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M51" s="19">
-        <v>169.10309860617267</v>
+      <c r="M51" s="17">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>97</v>
@@ -3725,8 +3722,8 @@
       <c r="L52" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M52" s="20">
-        <v>23.985187432088011</v>
+      <c r="M52" s="18">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>97</v>
@@ -3763,8 +3760,8 @@
       <c r="L53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M53" s="19">
-        <v>23.958707950812247</v>
+      <c r="M53" s="17">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>97</v>
@@ -3801,8 +3798,8 @@
       <c r="L54" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M54" s="20">
-        <v>24.447082907321526</v>
+      <c r="M54" s="18">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>97</v>
@@ -3839,8 +3836,8 @@
       <c r="L55" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M55" s="19">
-        <v>145.4691779319914</v>
+      <c r="M55" s="17">
+        <v>3.1515657407784566E-2</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>97</v>
@@ -3877,8 +3874,8 @@
       <c r="L56" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M56" s="20">
-        <v>47.742216627882641</v>
+      <c r="M56" s="18">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>97</v>
@@ -3915,8 +3912,8 @@
       <c r="L57" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M57" s="19">
-        <v>23.688633450985318</v>
+      <c r="M57" s="17">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>97</v>
@@ -3953,8 +3950,8 @@
       <c r="L58" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="M58" s="20">
-        <v>120.06411007239235</v>
+      <c r="M58" s="18">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>97</v>
@@ -3973,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABDB85C-0A48-4E87-B605-2CD67FECA75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A41ECA-7084-45B0-AE2B-49A2AC0A3923}">
   <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
